--- a/Pubmed/Lassa/Reference_Summary_Apr7.xlsx
+++ b/Pubmed/Lassa/Reference_Summary_Apr7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1299BF9-A475-5646-944B-35EE2E5A762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE658F98-2CBA-AB4C-A197-6E9050DDB002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="500" windowWidth="28660" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1180" windowWidth="28660" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="446">
   <si>
     <t>Title</t>
   </si>
@@ -2955,6 +2955,15 @@
 PRJNA436552: Includes additional genomes deposited in GenBank
 MK281624-MK281631, MH887755-MH053590"</t>
   </si>
+  <si>
+    <t>Elucidating Infectious Causes of Fever of Unknown Origin: A Laboratory-Based Observational Study of Patients with Suspected Ebola Virus Disease, Guinea, 2014</t>
+  </si>
+  <si>
+    <t>Postigo-Hidalgo I, Magassouba N, Krüger N, Guilavogui ML, Kruger DH, Klempa B, Drexler JF.</t>
+  </si>
+  <si>
+    <t>OQ889555</t>
+  </si>
 </sst>
 </file>
 
@@ -3010,7 +3019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3021,10 +3030,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3327,10 +3335,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3338,12 +3348,13 @@
     <col min="1" max="1" width="62" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="33.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="57.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
+    <col min="11" max="11" width="57.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
@@ -3380,7 +3391,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -3469,7 +3480,7 @@
       <c r="K2" t="s">
         <v>435</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
       <c r="M2" t="s">
@@ -3549,7 +3560,7 @@
       <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
       <c r="M3" t="s">
@@ -3626,7 +3637,7 @@
       <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
       <c r="M4" t="s">
@@ -3706,7 +3717,7 @@
       <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" t="s">
         <v>36</v>
       </c>
       <c r="M5" t="s">
@@ -3786,7 +3797,7 @@
       <c r="K6" t="s">
         <v>434</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" t="s">
         <v>36</v>
       </c>
       <c r="M6" t="s">
@@ -3863,7 +3874,7 @@
       <c r="K7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" t="s">
         <v>36</v>
       </c>
       <c r="M7" t="s">
@@ -3943,7 +3954,7 @@
       <c r="K8" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" t="s">
         <v>36</v>
       </c>
       <c r="M8" t="s">
@@ -4026,7 +4037,7 @@
       <c r="K9" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="s">
@@ -4106,7 +4117,7 @@
       <c r="K10" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
       <c r="N10" t="s">
@@ -4183,7 +4194,7 @@
       <c r="K11" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" t="s">
         <v>36</v>
       </c>
       <c r="N11" t="s">
@@ -4260,7 +4271,7 @@
       <c r="K12" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" t="s">
         <v>36</v>
       </c>
       <c r="N12" t="s">
@@ -4337,7 +4348,7 @@
       <c r="K13" t="s">
         <v>201</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" t="s">
         <v>36</v>
       </c>
       <c r="N13" t="s">
@@ -4411,7 +4422,7 @@
       <c r="J14" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" t="s">
         <v>36</v>
       </c>
       <c r="N14" t="s">
@@ -4482,7 +4493,7 @@
       <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" t="s">
         <v>36</v>
       </c>
       <c r="N15" t="s">
@@ -4621,7 +4632,7 @@
       <c r="K17" t="s">
         <v>425</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" t="s">
         <v>36</v>
       </c>
       <c r="M17" t="s">
@@ -4701,7 +4712,7 @@
       <c r="K18" t="s">
         <v>206</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" t="s">
         <v>36</v>
       </c>
       <c r="N18" t="s">
@@ -4778,7 +4789,7 @@
       <c r="K19" t="s">
         <v>248</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" t="s">
         <v>36</v>
       </c>
       <c r="N19" t="s">
@@ -4855,7 +4866,7 @@
       <c r="K20" t="s">
         <v>305</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" t="s">
         <v>197</v>
       </c>
       <c r="N20" t="s">
@@ -4929,7 +4940,7 @@
       <c r="K21" t="s">
         <v>243</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" t="s">
         <v>235</v>
       </c>
       <c r="N21" t="s">
@@ -5006,7 +5017,7 @@
       <c r="K22" t="s">
         <v>253</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" t="s">
         <v>235</v>
       </c>
       <c r="N22" t="s">
@@ -5083,7 +5094,7 @@
       <c r="K23" t="s">
         <v>276</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" t="s">
         <v>197</v>
       </c>
       <c r="N23" t="s">
@@ -5166,7 +5177,7 @@
       <c r="K24" t="s">
         <v>438</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" t="s">
         <v>197</v>
       </c>
       <c r="N24" t="s">
@@ -5249,7 +5260,7 @@
       <c r="K25" t="s">
         <v>287</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" t="s">
         <v>36</v>
       </c>
       <c r="N25" t="s">
@@ -5320,7 +5331,7 @@
       <c r="K26" t="s">
         <v>374</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" t="s">
         <v>197</v>
       </c>
       <c r="M26" t="s">
@@ -5400,7 +5411,7 @@
       <c r="J27" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" t="s">
         <v>197</v>
       </c>
       <c r="N27" t="s">
@@ -5474,7 +5485,7 @@
       <c r="K28" t="s">
         <v>346</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" t="s">
         <v>197</v>
       </c>
       <c r="M28" t="s">
@@ -5554,7 +5565,7 @@
       <c r="K29" t="s">
         <v>368</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" t="s">
         <v>36</v>
       </c>
       <c r="N29" t="s">
@@ -5634,7 +5645,7 @@
       <c r="K30" t="s">
         <v>439</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" t="s">
         <v>197</v>
       </c>
       <c r="N30" t="s">
@@ -5717,7 +5728,7 @@
       <c r="K31" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" t="s">
         <v>36</v>
       </c>
       <c r="M31" t="s">
@@ -5794,7 +5805,7 @@
       <c r="J32" t="s">
         <v>259</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" t="s">
         <v>197</v>
       </c>
       <c r="M32" t="s">
@@ -5877,7 +5888,7 @@
       <c r="K33" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" t="s">
         <v>36</v>
       </c>
       <c r="M33" t="s">
@@ -5957,7 +5968,7 @@
       <c r="K34" t="s">
         <v>125</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" t="s">
         <v>36</v>
       </c>
       <c r="M34" t="s">
@@ -6034,7 +6045,7 @@
       <c r="K35" t="s">
         <v>111</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" t="s">
         <v>36</v>
       </c>
       <c r="N35" t="s">
@@ -6188,7 +6199,7 @@
       <c r="K37" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" t="s">
         <v>36</v>
       </c>
       <c r="N37" t="s">
@@ -6265,7 +6276,7 @@
       <c r="K38" t="s">
         <v>147</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" t="s">
         <v>36</v>
       </c>
       <c r="N38" t="s">
@@ -6348,7 +6359,7 @@
       <c r="K39" t="s">
         <v>222</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" t="s">
         <v>36</v>
       </c>
       <c r="N39" t="s">
@@ -6431,7 +6442,7 @@
       <c r="K40" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" t="s">
         <v>235</v>
       </c>
       <c r="N40" t="s">
@@ -6514,7 +6525,7 @@
       <c r="K41" t="s">
         <v>131</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" t="s">
         <v>36</v>
       </c>
       <c r="N41" t="s">
@@ -6597,7 +6608,7 @@
       <c r="K42" t="s">
         <v>171</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" t="s">
         <v>36</v>
       </c>
       <c r="N42" t="s">
@@ -6671,7 +6682,7 @@
       <c r="K43" t="s">
         <v>196</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" t="s">
         <v>197</v>
       </c>
       <c r="N43" t="s">
@@ -6745,7 +6756,7 @@
       <c r="K44" t="s">
         <v>234</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" t="s">
         <v>235</v>
       </c>
       <c r="N44" t="s">
@@ -6822,7 +6833,7 @@
       <c r="K45" t="s">
         <v>184</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" t="s">
         <v>36</v>
       </c>
       <c r="N45" t="s">
@@ -7118,7 +7129,7 @@
       <c r="K49" t="s">
         <v>323</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" t="s">
         <v>197</v>
       </c>
       <c r="N49" t="s">
@@ -7281,7 +7292,7 @@
       <c r="K51" t="s">
         <v>272</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" t="s">
         <v>36</v>
       </c>
       <c r="N51" t="s">
@@ -7364,7 +7375,7 @@
       <c r="K52" t="s">
         <v>214</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" t="s">
         <v>197</v>
       </c>
       <c r="N52" t="s">
@@ -7447,7 +7458,7 @@
       <c r="K53" t="s">
         <v>337</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" t="s">
         <v>36</v>
       </c>
       <c r="N53" t="s">
@@ -7527,7 +7538,7 @@
       <c r="J54" t="s">
         <v>294</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" t="s">
         <v>36</v>
       </c>
       <c r="N54" t="s">
@@ -7604,7 +7615,7 @@
       <c r="K55" t="s">
         <v>341</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="L55" t="s">
         <v>235</v>
       </c>
       <c r="M55" t="s">
@@ -7690,7 +7701,7 @@
       <c r="K56" t="s">
         <v>349</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" t="s">
         <v>235</v>
       </c>
       <c r="N56" t="s">
@@ -7773,7 +7784,7 @@
       <c r="K57" t="s">
         <v>440</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="L57" t="s">
         <v>36</v>
       </c>
       <c r="N57" t="s">
@@ -7856,7 +7867,7 @@
       <c r="K58" t="s">
         <v>266</v>
       </c>
-      <c r="L58" s="5" t="s">
+      <c r="L58" t="s">
         <v>197</v>
       </c>
       <c r="N58" t="s">
@@ -8013,7 +8024,7 @@
       <c r="K60" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L60" t="s">
         <v>197</v>
       </c>
       <c r="N60" t="s">
@@ -8087,7 +8098,7 @@
       <c r="K61" t="s">
         <v>419</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="L61" t="s">
         <v>197</v>
       </c>
       <c r="N61" t="s">
@@ -8297,7 +8308,7 @@
       <c r="K64" t="s">
         <v>356</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L64" t="s">
         <v>36</v>
       </c>
       <c r="M64" t="s">
@@ -8489,7 +8500,7 @@
       <c r="K67" t="s">
         <v>383</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L67" t="s">
         <v>197</v>
       </c>
       <c r="N67" t="s">
@@ -8563,7 +8574,7 @@
       <c r="K68" t="s">
         <v>431</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="L68" t="s">
         <v>235</v>
       </c>
       <c r="N68" t="s">
@@ -8598,6 +8609,47 @@
       </c>
       <c r="Z68" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>443</v>
+      </c>
+      <c r="B69" t="s">
+        <v>444</v>
+      </c>
+      <c r="C69">
+        <v>2025</v>
+      </c>
+      <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69">
+        <v>39928049</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69">
+        <v>2014</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="L69" t="s">
+        <v>197</v>
+      </c>
+      <c r="N69" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Pubmed/Lassa/Reference_Summary_Apr7.xlsx
+++ b/Pubmed/Lassa/Reference_Summary_Apr7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE658F98-2CBA-AB4C-A197-6E9050DDB002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E7A22-F492-C142-AB75-C5C122162A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="1180" windowWidth="28660" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="443">
   <si>
     <t>Title</t>
   </si>
@@ -2955,15 +2955,6 @@
 PRJNA436552: Includes additional genomes deposited in GenBank
 MK281624-MK281631, MH887755-MH053590"</t>
   </si>
-  <si>
-    <t>Elucidating Infectious Causes of Fever of Unknown Origin: A Laboratory-Based Observational Study of Patients with Suspected Ebola Virus Disease, Guinea, 2014</t>
-  </si>
-  <si>
-    <t>Postigo-Hidalgo I, Magassouba N, Krüger N, Guilavogui ML, Kruger DH, Klempa B, Drexler JF.</t>
-  </si>
-  <si>
-    <t>OQ889555</t>
-  </si>
 </sst>
 </file>
 
@@ -3019,7 +3010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3029,9 +3020,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3335,12 +3323,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8611,47 +8599,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>443</v>
-      </c>
-      <c r="B69" t="s">
-        <v>444</v>
-      </c>
-      <c r="C69">
-        <v>2025</v>
-      </c>
-      <c r="D69" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69">
-        <v>39928049</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s">
-        <v>33</v>
-      </c>
-      <c r="I69">
-        <v>2014</v>
-      </c>
-      <c r="J69" t="s">
-        <v>110</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="L69" t="s">
-        <v>197</v>
-      </c>
-      <c r="N69" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:AC68" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
